--- a/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
+++ b/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,117 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意事项</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：导入时请保证</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被拆除腾退人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列不可为空，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>土地性质</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列请填写“集体”或“国有”，不可为其他值。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>导入时删除此行</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +283,33 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -224,12 +362,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD20" activeCellId="1" sqref="AI1 AD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,114 +708,129 @@
     <col min="32" max="33" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
+++ b/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,10 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>入户时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -371,6 +375,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,7 +394,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,7 +471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -675,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,9 +711,10 @@
     <col min="30" max="30" width="17.75" customWidth="1"/>
     <col min="31" max="31" width="17.875" customWidth="1"/>
     <col min="32" max="33" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
@@ -720,7 +726,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -825,6 +831,9 @@
       </c>
       <c r="AI2" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
+++ b/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入户时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,7 +228,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>被拆除腾退人</t>
+      <t>被拆除腾退人、标段、组别</t>
     </r>
     <r>
       <rPr>
@@ -266,10 +278,6 @@
       </rPr>
       <t>导入时删除此行</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入户时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,10 +380,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -394,7 +402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,7 +479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,21 +720,25 @@
     <col min="31" max="31" width="17.875" customWidth="1"/>
     <col min="32" max="33" width="15.125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1"/>
+    <col min="37" max="37" width="12.125" customWidth="1"/>
+    <col min="38" max="38" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+    <row r="1" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -832,15 +844,30 @@
       <c r="AI2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>36</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="请按照提示填写" prompt="集体_x000a_国有" sqref="B2:B1048576">
+      <formula1>"集体,国有"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>0</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
+++ b/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,14 +159,6 @@
   </si>
   <si>
     <t>入户时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评估人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -402,7 +394,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +471,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -720,13 +712,11 @@
     <col min="31" max="31" width="17.875" customWidth="1"/>
     <col min="32" max="33" width="15.125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1"/>
-    <col min="37" max="37" width="12.125" customWidth="1"/>
-    <col min="38" max="38" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -738,7 +728,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -846,12 +836,6 @@
       </c>
       <c r="AJ2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
+++ b/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,54 @@
       </rPr>
       <t>导入时删除此行</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆数量（辆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃煤锅炉（个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气锅炉（个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸汽锅炉（个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散煤（吨）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材切割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他服务行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +442,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,9 +760,11 @@
     <col min="31" max="31" width="17.875" customWidth="1"/>
     <col min="32" max="33" width="15.125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1"/>
+    <col min="38" max="41" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:48" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
@@ -728,7 +778,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -836,6 +886,42 @@
       </c>
       <c r="AJ2" s="5" t="s">
         <v>35</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -843,13 +929,16 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="请按照提示填写" prompt="集体_x000a_国有" sqref="B2:B1048576">
       <formula1>"集体,国有"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>0</formula1>
       <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="只能输入数字" sqref="AK1:AO1048576 AQ1:AQ1048576 AR1:AR1048576 AS1:AS1048576 AT1:AT1048576 AU1:AU1048576 AV1:AV1048576">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
+++ b/src/main/webapp/assets/templates/import-preallocations-basic-template.xlsx
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -759,6 +759,7 @@
     <col min="30" max="30" width="17.75" customWidth="1"/>
     <col min="31" max="31" width="17.875" customWidth="1"/>
     <col min="32" max="33" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9" style="1"/>
     <col min="36" max="36" width="9" style="1"/>
     <col min="38" max="41" width="15.125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="13" bestFit="1" customWidth="1"/>
@@ -878,7 +879,7 @@
       <c r="AG2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="AI2" s="4" t="s">
